--- a/python/Excel操作/SheetCopy/mst/mst_sheet.xlsx
+++ b/python/Excel操作/SheetCopy/mst/mst_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igarashiakira/anotools_module/python/Excel_Ope/SheetCopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igarashiakira/anotools_module/python/Excel操作/SheetCopy/mst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E92045-7BF9-7448-8456-5F3824512097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189C191-F6B5-C446-8562-A98380B88C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1800" windowWidth="28800" windowHeight="17500" xr2:uid="{36125CC0-39C9-9C41-89A7-B88CD388C757}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{36125CC0-39C9-9C41-89A7-B88CD388C757}"/>
   </bookViews>
   <sheets>
     <sheet name="本紙" sheetId="1" r:id="rId1"/>
@@ -79,23 +79,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シートA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シートB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シートC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -103,6 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -168,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED28A9AB-AE71-DD4C-BEC2-AC093C085CE7}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -527,28 +533,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -561,15 +568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489863C-D9FD-884E-B90F-58FAA20A385D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:1" ht="45">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
